--- a/pred_ohlcv/54_21/2020-01-24 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 WAVES ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>1744.647899999998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1744.647899999998</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1732.022299999998</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1523.711699999998</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>600.4938999999981</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1610.737399999998</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2450.737399999998</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>11554.6594</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>11501.7381</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>17273.43787615</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>16691.94607615</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>16746.97587615</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>12563.52867615</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>12677.19677615</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>16986.58637615</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>16986.58637615</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>16992.15827615</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>16989.15827615</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>17204.33297615</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>17204.33297615</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>21879.68157615</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>21878.39187615</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>21974.39187615</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>21952.39187615</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>24080.11457615</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>24083.11457615</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>23356.67067615</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>23004.86117615</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>23004.86117615</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>23104.86117615</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>9956.743174620013</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-14844.55752537998</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-16897.30152537998</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 WAVES ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>1744.647899999998</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1744.647899999998</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1732.022299999998</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1523.711699999998</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>600.4938999999981</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1610.737399999998</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2450.737399999998</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>11554.6594</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>11501.7381</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>17273.43787615</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>16746.97587615</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>12563.52867615</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>16986.58637615</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>16992.15827615</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>16989.15827615</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>17204.33297615</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>21879.68157615</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>21878.39187615</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>21974.39187615</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>21952.39187615</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>9956.743174620013</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-14844.55752537998</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-16897.30152537998</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
